--- a/Tesis data/Desestacionalización/IPC mensual.xlsx
+++ b/Tesis data/Desestacionalización/IPC mensual.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/GitHub/GabrielDelC/Tesis data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2497e95eb19b2b76/Desktop/Tesis general/Tesis Lenovo/Tesis-paper/Tesis data/Desestacionalización/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24BBB87-51A5-2B4B-BA79-9C4BF711FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D24BBB87-51A5-2B4B-BA79-9C4BF711FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7CD19E8-4315-4322-AFAC-570EFCBA92F0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19440" xr2:uid="{92FEC0B2-1F7E-F948-AE77-E5335E9A5788}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{92FEC0B2-1F7E-F948-AE77-E5335E9A5788}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja5" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja5!$A$1:$F$371</definedName>
@@ -27,22 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>IPC</t>
   </si>
@@ -57,6 +48,9 @@
   </si>
   <si>
     <t>IPC 2 prom</t>
+  </si>
+  <si>
+    <t>IPC var</t>
   </si>
 </sst>
 </file>
@@ -3415,15 +3409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F3F68C-45FF-D241-A42C-8C4FDCED4288}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A371"/>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="E1" activeCellId="1" sqref="B1:B1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3440,7 +3435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>34335</v>
       </c>
@@ -3454,7 +3449,7 @@
         <v>33.6380332452351</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>34366</v>
       </c>
@@ -3468,7 +3463,7 @@
         <v>34.173544303790599</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>34394</v>
       </c>
@@ -3490,7 +3485,7 @@
         <v>34.159189150948166</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>34425</v>
       </c>
@@ -3504,7 +3499,7 @@
         <v>35.175920420094698</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>34455</v>
       </c>
@@ -3518,7 +3513,7 @@
         <v>35.470761634202702</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>34486</v>
       </c>
@@ -3540,7 +3535,7 @@
         <v>35.519764500795638</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>34516</v>
       </c>
@@ -3554,7 +3549,7 @@
         <v>36.201235749932202</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>34547</v>
       </c>
@@ -3568,7 +3563,7 @@
         <v>36.767544716586301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>34578</v>
       </c>
@@ -3590,7 +3585,7 @@
         <v>36.677683805764467</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>34608</v>
       </c>
@@ -3604,7 +3599,7 @@
         <v>37.295395047032898</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>34639</v>
       </c>
@@ -3618,7 +3613,7 @@
         <v>37.829937620514997</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>34669</v>
       </c>
@@ -3640,7 +3635,7 @@
         <v>37.723295399604702</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>34700</v>
       </c>
@@ -3654,7 +3649,7 @@
         <v>38.223876713575699</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>34731</v>
       </c>
@@ -3668,7 +3663,7 @@
         <v>38.583094115663201</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>34759</v>
       </c>
@@ -3690,7 +3685,7 @@
         <v>38.540055547558033</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>34790</v>
       </c>
@@ -3704,7 +3699,7 @@
         <v>39.168378745435497</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>34820</v>
       </c>
@@ -3718,7 +3713,7 @@
         <v>39.541489832637403</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>34851</v>
       </c>
@@ -3740,7 +3735,7 @@
         <v>39.535361224976803</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>34881</v>
       </c>
@@ -3754,7 +3749,7 @@
         <v>40.089492408034999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>34912</v>
       </c>
@@ -3768,7 +3763,7 @@
         <v>40.520241193922701</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>34943</v>
       </c>
@@ -3790,7 +3785,7 @@
         <v>40.463659925613506</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>34973</v>
       </c>
@@ -3804,7 +3799,7 @@
         <v>41.115688764634697</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>35004</v>
       </c>
@@ -3818,7 +3813,7 @@
         <v>41.707957822953503</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>35034</v>
       </c>
@@ -3840,7 +3835,7 @@
         <v>41.578794038642769</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>35065</v>
       </c>
@@ -3854,7 +3849,7 @@
         <v>42.472655891646099</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>35096</v>
       </c>
@@ -3868,7 +3863,7 @@
         <v>42.938728437264999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>35125</v>
       </c>
@@ -3890,7 +3885,7 @@
         <v>42.916911697131532</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>35156</v>
       </c>
@@ -3904,7 +3899,7 @@
         <v>43.702925530388903</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>35186</v>
       </c>
@@ -3918,7 +3913,7 @@
         <v>44.059859368197799</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>35217</v>
       </c>
@@ -3940,7 +3935,7 @@
         <v>44.019218683246095</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>35247</v>
       </c>
@@ -3954,7 +3949,7 @@
         <v>44.8755966930987</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>35278</v>
       </c>
@@ -3968,7 +3963,7 @@
         <v>45.303505965440202</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>35309</v>
       </c>
@@ -3990,7 +3985,7 @@
         <v>45.243186068085102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>35339</v>
       </c>
@@ -4004,7 +3999,7 @@
         <v>46.011019303537203</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35370</v>
       </c>
@@ -4018,7 +4013,7 @@
         <v>46.3114793014649</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35400</v>
       </c>
@@ -4040,7 +4035,7 @@
         <v>46.392147439450099</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35431</v>
       </c>
@@ -4054,7 +4049,7 @@
         <v>47.116884545106302</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>35462</v>
       </c>
@@ -4068,7 +4063,7 @@
         <v>47.0912668026006</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>35490</v>
       </c>
@@ -4090,7 +4085,7 @@
         <v>47.198462334302739</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>35521</v>
       </c>
@@ -4104,7 +4099,7 @@
         <v>47.557828063608902</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>35551</v>
       </c>
@@ -4118,7 +4113,7 @@
         <v>47.951141579004997</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>35582</v>
       </c>
@@ -4140,7 +4135,7 @@
         <v>48.005435981520264</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>35612</v>
       </c>
@@ -4154,7 +4149,7 @@
         <v>48.876187884246797</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>35643</v>
       </c>
@@ -4168,7 +4163,7 @@
         <v>49.003605961256902</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>35674</v>
       </c>
@@ -4190,7 +4185,7 @@
         <v>49.041660305259661</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>35704</v>
       </c>
@@ -4204,7 +4199,7 @@
         <v>49.440554697498698</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>35735</v>
       </c>
@@ -4218,7 +4213,7 @@
         <v>49.570518487688901</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>35765</v>
       </c>
@@ -4240,7 +4235,7 @@
         <v>49.628184646080335</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>35796</v>
       </c>
@@ -4254,7 +4249,7 @@
         <v>50.357187056652698</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>35827</v>
       </c>
@@ -4268,7 +4263,7 @@
         <v>50.911206059779197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>35855</v>
       </c>
@@ -4290,7 +4285,7 @@
         <v>50.849617162684801</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>35886</v>
       </c>
@@ -4304,7 +4299,7 @@
         <v>51.5785224583177</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>35916</v>
       </c>
@@ -4318,7 +4313,7 @@
         <v>51.915682674753697</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>35947</v>
       </c>
@@ -4340,7 +4335,7 @@
         <v>51.909399382713637</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>35977</v>
       </c>
@@ -4354,7 +4349,7 @@
         <v>52.526466222719399</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>36008</v>
       </c>
@@ -4368,7 +4363,7 @@
         <v>52.686314600021298</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>36039</v>
       </c>
@@ -4390,7 +4385,7 @@
         <v>52.567465603757306</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>36069</v>
       </c>
@@ -4404,7 +4399,7 @@
         <v>52.427131008236501</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>36100</v>
       </c>
@@ -4418,7 +4413,7 @@
         <v>52.5446785383348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>36130</v>
       </c>
@@ -4440,7 +4435,7 @@
         <v>52.608262577852109</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>36161</v>
       </c>
@@ -4454,7 +4449,7 @@
         <v>52.893780819409201</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>36192</v>
       </c>
@@ -4468,7 +4463,7 @@
         <v>53.000059681610502</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>36220</v>
       </c>
@@ -4490,7 +4485,7 @@
         <v>52.973533448775761</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>36251</v>
       </c>
@@ -4504,7 +4499,7 @@
         <v>53.322099285841702</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>36281</v>
       </c>
@@ -4518,7 +4513,7 @@
         <v>53.606258905879699</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>36312</v>
       </c>
@@ -4540,7 +4535,7 @@
         <v>53.55975365328127</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>36342</v>
       </c>
@@ -4554,7 +4549,7 @@
         <v>53.855678401438801</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>36373</v>
       </c>
@@ -4568,7 +4563,7 @@
         <v>53.9759347985758</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>36404</v>
       </c>
@@ -4590,7 +4585,7 @@
         <v>54.041642001140438</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>36434</v>
       </c>
@@ -4604,7 +4599,7 @@
         <v>54.328349324360097</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>36465</v>
       </c>
@@ -4618,7 +4613,7 @@
         <v>54.589674027333103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>36495</v>
       </c>
@@ -4640,7 +4635,7 @@
         <v>54.575411841317703</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>36526</v>
       </c>
@@ -4654,7 +4649,7 @@
         <v>54.881088056474702</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>36557</v>
       </c>
@@ -4668,7 +4663,7 @@
         <v>54.976223068423501</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>36586</v>
       </c>
@@ -4690,7 +4685,7 @@
         <v>54.981377292232871</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>36617</v>
       </c>
@@ -4704,7 +4699,7 @@
         <v>55.349974782111403</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>36647</v>
       </c>
@@ -4718,7 +4713,7 @@
         <v>55.406075139560798</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>36678</v>
       </c>
@@ -4740,7 +4735,7 @@
         <v>55.415652716875734</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>36708</v>
       </c>
@@ -4754,7 +4749,7 @@
         <v>55.7400764061166</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>36739</v>
       </c>
@@ -4768,7 +4763,7 @@
         <v>56.036881854392902</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>36770</v>
       </c>
@@ -4790,7 +4785,7 @@
         <v>56.058292435932572</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>36800</v>
       </c>
@@ -4804,7 +4799,7 @@
         <v>56.622529922386597</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>36831</v>
       </c>
@@ -4818,7 +4813,7 @@
         <v>56.772322031333701</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>36861</v>
       </c>
@@ -4840,7 +4835,7 @@
         <v>56.74460480469147</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>36892</v>
       </c>
@@ -4854,7 +4849,7 @@
         <v>56.989975841483897</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>36923</v>
       </c>
@@ -4868,7 +4863,7 @@
         <v>57.068755935807403</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>36951</v>
       </c>
@@ -4890,7 +4885,7 @@
         <v>57.038040833013802</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>36982</v>
       </c>
@@ -4904,7 +4899,7 @@
         <v>56.806913308055599</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>37012</v>
       </c>
@@ -4918,7 +4913,7 @@
         <v>56.868376098741102</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>37043</v>
       </c>
@@ -4940,7 +4935,7 @@
         <v>56.853928095555297</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>37073</v>
       </c>
@@ -4954,7 +4949,7 @@
         <v>56.9553832602667</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>37104</v>
       </c>
@@ -4968,7 +4963,7 @@
         <v>56.819283381845402</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>37135</v>
       </c>
@@ -4990,7 +4985,7 @@
         <v>56.888775203930358</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>37165</v>
       </c>
@@ -5004,7 +4999,7 @@
         <v>57.000425251564799</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>37196</v>
       </c>
@@ -5018,7 +5013,7 @@
         <v>56.836439806373598</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>37226</v>
       </c>
@@ -5040,7 +5035,7 @@
         <v>56.8675681570815</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>37257</v>
       </c>
@@ -5054,7 +5049,7 @@
         <v>56.515085129775301</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>37288</v>
       </c>
@@ -5068,7 +5063,7 @@
         <v>56.433377590670901</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>37316</v>
       </c>
@@ -5090,7 +5085,7 @@
         <v>56.458410849473296</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>37347</v>
       </c>
@@ -5104,7 +5099,7 @@
         <v>56.836226140835102</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>37377</v>
       </c>
@@ -5118,7 +5113,7 @@
         <v>56.963840548922597</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>37408</v>
       </c>
@@ -5140,7 +5135,7 @@
         <v>56.895444285220201</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>37438</v>
       </c>
@@ -5154,7 +5149,7 @@
         <v>56.885831778235399</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>37469</v>
       </c>
@@ -5168,7 +5163,7 @@
         <v>56.977791968153298</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>37500</v>
       </c>
@@ -5190,7 +5185,7 @@
         <v>57.048848038048533</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>37530</v>
       </c>
@@ -5204,7 +5199,7 @@
         <v>57.772481560101397</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>37561</v>
       </c>
@@ -5218,7 +5213,7 @@
         <v>57.658435803671502</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>37591</v>
       </c>
@@ -5240,7 +5235,7 @@
         <v>57.685536813672336</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>37622</v>
       </c>
@@ -5254,7 +5249,7 @@
         <v>57.795153911371401</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>37653</v>
       </c>
@@ -5268,7 +5263,7 @@
         <v>58.004937182200401</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>37681</v>
       </c>
@@ -5290,7 +5285,7 @@
         <v>58.046151837106969</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>37712</v>
       </c>
@@ -5304,7 +5299,7 @@
         <v>58.311057918335202</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>37742</v>
       </c>
@@ -5318,7 +5313,7 @@
         <v>58.343515133373003</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>37773</v>
       </c>
@@ -5340,7 +5335,7 @@
         <v>58.2595644099111</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>37803</v>
       </c>
@@ -5354,7 +5349,7 @@
         <v>58.017335499992598</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>37834</v>
       </c>
@@ -5368,7 +5363,7 @@
         <v>58.0588646006305</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>37865</v>
       </c>
@@ -5390,7 +5385,7 @@
         <v>58.166173928702698</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>37895</v>
       </c>
@@ -5404,7 +5399,7 @@
         <v>58.5260915984612</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>37926</v>
       </c>
@@ -5418,7 +5413,7 @@
         <v>58.736612622030101</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>37956</v>
       </c>
@@ -5440,7 +5435,7 @@
         <v>58.772750259127967</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>37987</v>
       </c>
@@ -5454,7 +5449,7 @@
         <v>59.399132271913103</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>38018</v>
       </c>
@@ -5468,7 +5463,7 @@
         <v>59.873757350385702</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>38047</v>
       </c>
@@ -5490,7 +5485,7 @@
         <v>59.74194725783277</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>38078</v>
       </c>
@@ -5504,7 +5499,7 @@
         <v>59.941231874864499</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>38108</v>
       </c>
@@ -5518,7 +5513,7 @@
         <v>60.206262025660997</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>38139</v>
       </c>
@@ -5540,7 +5535,7 @@
         <v>60.250213242407689</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>38169</v>
       </c>
@@ -5554,7 +5549,7 @@
         <v>60.692708365062003</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>38200</v>
       </c>
@@ -5568,7 +5563,7 @@
         <v>60.725406046962</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>38231</v>
       </c>
@@ -5590,7 +5585,7 @@
         <v>60.730756162172902</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>38261</v>
       </c>
@@ -5604,7 +5599,7 @@
         <v>60.830161448627301</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>38292</v>
       </c>
@@ -5618,7 +5613,7 @@
         <v>61.126232229253901</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>38322</v>
       </c>
@@ -5640,7 +5635,7 @@
         <v>61.019804369820974</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>38353</v>
       </c>
@@ -5654,7 +5649,7 @@
         <v>61.188023585959897</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>38384</v>
       </c>
@@ -5668,7 +5663,7 @@
         <v>60.998165379731098</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>38412</v>
       </c>
@@ -5690,7 +5685,7 @@
         <v>61.08965138872373</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>38443</v>
       </c>
@@ -5704,7 +5699,7 @@
         <v>61.155480306987698</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>38473</v>
       </c>
@@ -5718,7 +5713,7 @@
         <v>61.295595735803602</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>38504</v>
       </c>
@@ -5740,7 +5735,7 @@
         <v>61.320086299242597</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>38534</v>
       </c>
@@ -5754,7 +5749,7 @@
         <v>61.5390332789326</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>38565</v>
       </c>
@@ -5768,7 +5763,7 @@
         <v>61.468569252466601</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>38596</v>
       </c>
@@ -5790,7 +5785,7 @@
         <v>61.485223682894862</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>38626</v>
       </c>
@@ -5804,7 +5799,7 @@
         <v>61.607087144808403</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>38657</v>
       </c>
@@ -5818,7 +5813,7 @@
         <v>61.772866500946598</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>38687</v>
       </c>
@@ -5840,7 +5835,7 @@
         <v>61.796481199592627</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>38718</v>
       </c>
@@ -5854,7 +5849,7 @@
         <v>62.347731596943397</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>38749</v>
       </c>
@@ -5868,7 +5863,7 @@
         <v>62.643340748543402</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>38777</v>
       </c>
@@ -5890,7 +5885,7 @@
         <v>62.535272139192301</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>38808</v>
       </c>
@@ -5904,7 +5899,7 @@
         <v>62.9335927174888</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>38838</v>
       </c>
@@ -5918,7 +5913,7 @@
         <v>62.673276051249999</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>38869</v>
       </c>
@@ -5940,7 +5935,7 @@
         <v>62.748862260339031</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>38899</v>
       </c>
@@ -5954,7 +5949,7 @@
         <v>62.491550013932503</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>38930</v>
       </c>
@@ -5968,7 +5963,7 @@
         <v>62.612875477227803</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>38961</v>
       </c>
@@ -5990,7 +5985,7 @@
         <v>62.589488465867532</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>38991</v>
       </c>
@@ -6004,7 +5999,7 @@
         <v>62.7669335846658</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>39022</v>
       </c>
@@ -6018,7 +6013,7 @@
         <v>62.7154197721282</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>39052</v>
       </c>
@@ -6040,7 +6035,7 @@
         <v>62.729955318999295</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>39083</v>
       </c>
@@ -6054,7 +6049,7 @@
         <v>62.752387954079097</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>39114</v>
       </c>
@@ -6068,7 +6063,7 @@
         <v>62.873461639231103</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>39142</v>
       </c>
@@ -6090,7 +6085,7 @@
         <v>62.798747435154468</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>39173</v>
       </c>
@@ -6104,7 +6099,7 @@
         <v>62.8905210482732</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>39203</v>
       </c>
@@ -6118,7 +6113,7 @@
         <v>63.2724968769664</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>39234</v>
       </c>
@@ -6140,7 +6135,7 @@
         <v>63.259909188755501</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>39264</v>
       </c>
@@ -6154,7 +6149,7 @@
         <v>63.873397757755598</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>39295</v>
       </c>
@@ -6168,7 +6163,7 @@
         <v>63.986124895276298</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>39326</v>
       </c>
@@ -6190,7 +6185,7 @@
         <v>64.089795198844428</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>39356</v>
       </c>
@@ -6204,7 +6199,7 @@
         <v>64.694236908079802</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>39387</v>
       </c>
@@ -6218,7 +6213,7 @@
         <v>64.891178618479103</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>39417</v>
       </c>
@@ -6240,7 +6235,7 @@
         <v>64.915020969040725</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>39448</v>
       </c>
@@ -6254,7 +6249,7 @@
         <v>65.347444260044099</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>39479</v>
       </c>
@@ -6268,7 +6263,7 @@
         <v>65.794565276835996</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>39508</v>
       </c>
@@ -6290,7 +6285,7 @@
         <v>65.799740574483266</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>39539</v>
       </c>
@@ -6304,7 +6299,7 @@
         <v>66.377117960665103</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>39569</v>
       </c>
@@ -6318,7 +6313,7 @@
         <v>66.693178006986201</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>39600</v>
       </c>
@@ -6340,7 +6335,7 @@
         <v>66.77668070303487</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>39630</v>
       </c>
@@ -6354,7 +6349,7 @@
         <v>67.579679330046503</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>39661</v>
       </c>
@@ -6368,7 +6363,7 @@
         <v>67.989559484414698</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>39692</v>
       </c>
@@ -6390,7 +6385,7 @@
         <v>67.996311153258659</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>39722</v>
       </c>
@@ -6404,7 +6399,7 @@
         <v>68.919129385759504</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>39753</v>
       </c>
@@ -6418,7 +6413,7 @@
         <v>69.252185225602005</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>39783</v>
       </c>
@@ -6440,7 +6435,7 @@
         <v>69.2184606918903</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>39814</v>
       </c>
@@ -6454,7 +6449,7 @@
         <v>69.5949367233911</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>39845</v>
       </c>
@@ -6468,7 +6463,7 @@
         <v>69.521176265802794</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>39873</v>
       </c>
@@ -6490,7 +6485,7 @@
         <v>69.5158460323442</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>39904</v>
       </c>
@@ -6504,7 +6499,7 @@
         <v>69.459909862102805</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>39934</v>
       </c>
@@ -6518,7 +6513,7 @@
         <v>69.501245582526195</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>39965</v>
       </c>
@@ -6540,7 +6535,7 @@
         <v>69.429980101142078</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>39995</v>
       </c>
@@ -6554,7 +6549,7 @@
         <v>69.392282225560294</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>40026</v>
       </c>
@@ -6568,7 +6563,7 @@
         <v>69.251210073417795</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>40057</v>
       </c>
@@ -6590,7 +6585,7 @@
         <v>69.294721888708395</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>40087</v>
       </c>
@@ -6604,7 +6599,7 @@
         <v>69.410280797634698</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>40118</v>
       </c>
@@ -6618,7 +6613,7 @@
         <v>69.459309957870602</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>40148</v>
       </c>
@@ -6640,7 +6635,7 @@
         <v>69.509314513525268</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>40179</v>
       </c>
@@ -6654,7 +6649,7 @@
         <v>69.899514243167403</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>40210</v>
       </c>
@@ -6668,7 +6663,7 @@
         <v>70.111470041741896</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>40238</v>
       </c>
@@ -6690,7 +6685,7 @@
         <v>69.989587749292056</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>40269</v>
       </c>
@@ -6704,7 +6699,7 @@
         <v>69.986281991272804</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>40299</v>
       </c>
@@ -6718,7 +6713,7 @@
         <v>70.2278890325085</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>40330</v>
       </c>
@@ -6740,7 +6735,7 @@
         <v>70.228928369379503</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>40360</v>
       </c>
@@ -6754,7 +6749,7 @@
         <v>70.650888127133499</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>40391</v>
       </c>
@@ -6768,7 +6763,7 @@
         <v>70.839798584633897</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>40422</v>
       </c>
@@ -6790,7 +6785,7 @@
         <v>70.78679951668154</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>40452</v>
       </c>
@@ -6804,7 +6799,7 @@
         <v>70.861232954672403</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>40483</v>
       </c>
@@ -6818,7 +6813,7 @@
         <v>71.001079363894206</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>40513</v>
       </c>
@@ -6840,7 +6835,7 @@
         <v>70.989248462322109</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>40544</v>
       </c>
@@ -6854,7 +6849,7 @@
         <v>71.422171664828099</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>40575</v>
       </c>
@@ -6868,7 +6863,7 @@
         <v>71.689582161597997</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>40603</v>
       </c>
@@ -6890,7 +6885,7 @@
         <v>71.645107978426665</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>40634</v>
       </c>
@@ -6904,7 +6899,7 @@
         <v>72.319973162680299</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>40664</v>
       </c>
@@ -6918,7 +6913,7 @@
         <v>72.387303355066194</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>40695</v>
       </c>
@@ -6940,7 +6935,7 @@
         <v>72.412414620038319</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>40725</v>
       </c>
@@ -6954,7 +6949,7 @@
         <v>73.017132420635306</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>40756</v>
       </c>
@@ -6968,7 +6963,7 @@
         <v>73.205435373948703</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>40787</v>
       </c>
@@ -6990,7 +6985,7 @@
         <v>73.24201913181362</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>40817</v>
       </c>
@@ -7004,7 +6999,7 @@
         <v>73.834689584877594</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>40848</v>
       </c>
@@ -7018,7 +7013,7 @@
         <v>74.289328880296907</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>40878</v>
       </c>
@@ -7040,7 +7035,7 @@
         <v>74.196548124677506</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>40909</v>
       </c>
@@ -7054,7 +7049,7 @@
         <v>74.440518869885594</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>40940</v>
       </c>
@@ -7068,7 +7063,7 @@
         <v>74.572753127625802</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>40969</v>
       </c>
@@ -7090,7 +7085,7 @@
         <v>74.625409021805424</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>41000</v>
       </c>
@@ -7104,7 +7099,7 @@
         <v>75.272785106762001</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>41030</v>
       </c>
@@ -7118,7 +7113,7 @@
         <v>75.391660368858396</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>41061</v>
       </c>
@@ -7140,7 +7135,7 @@
         <v>75.365815076583772</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>41091</v>
       </c>
@@ -7154,7 +7149,7 @@
         <v>75.413312332877695</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>41122</v>
       </c>
@@ -7168,7 +7163,7 @@
         <v>75.778959751218196</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>41153</v>
       </c>
@@ -7190,7 +7185,7 @@
         <v>75.811841620484003</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>41183</v>
       </c>
@@ -7204,7 +7199,7 @@
         <v>76.235843269190099</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>41214</v>
       </c>
@@ -7218,7 +7213,7 @@
         <v>76.2671804360062</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>41244</v>
       </c>
@@ -7240,7 +7235,7 @@
         <v>76.312898557784635</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>41275</v>
       </c>
@@ -7254,7 +7249,7 @@
         <v>76.580635558203397</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>41306</v>
       </c>
@@ -7268,7 +7263,7 @@
         <v>76.517538005045395</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>41334</v>
       </c>
@@ -7290,7 +7285,7 @@
         <v>76.632321654076108</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>41365</v>
       </c>
@@ -7304,7 +7299,7 @@
         <v>77.016197256667198</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>41395</v>
       </c>
@@ -7318,7 +7313,7 @@
         <v>77.252791981595394</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>41426</v>
       </c>
@@ -7340,7 +7335,7 @@
         <v>77.263686020906292</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>41456</v>
       </c>
@@ -7354,7 +7349,7 @@
         <v>77.858416634367501</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>41487</v>
       </c>
@@ -7368,7 +7363,7 @@
         <v>78.252303232589099</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>41518</v>
       </c>
@@ -7390,7 +7385,7 @@
         <v>78.171595214837794</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>41548</v>
       </c>
@@ -7404,7 +7399,7 @@
         <v>78.554020495655394</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>41579</v>
       </c>
@@ -7418,7 +7413,7 @@
         <v>78.518642230994402</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>41609</v>
       </c>
@@ -7440,7 +7435,7 @@
         <v>78.565228505827008</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>41640</v>
       </c>
@@ -7454,7 +7449,7 @@
         <v>78.926172901171697</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>41671</v>
       </c>
@@ -7468,7 +7463,7 @@
         <v>79.408705346221396</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>41699</v>
       </c>
@@ -7490,7 +7485,7 @@
         <v>79.241151428299986</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>41730</v>
       </c>
@@ -7504,7 +7499,7 @@
         <v>79.734235015414797</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>41760</v>
       </c>
@@ -7518,7 +7513,7 @@
         <v>79.999702843081195</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>41791</v>
       </c>
@@ -7540,7 +7535,7 @@
         <v>79.978027627819628</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>41821</v>
       </c>
@@ -7554,7 +7549,7 @@
         <v>80.452125478419703</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>41852</v>
       </c>
@@ -7568,7 +7563,7 @@
         <v>80.347553069900798</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>41883</v>
       </c>
@@ -7590,7 +7585,7 @@
         <v>80.452581702028212</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>41913</v>
       </c>
@@ -7604,7 +7599,7 @@
         <v>80.984861751561894</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>41944</v>
       </c>
@@ -7618,7 +7613,7 @@
         <v>80.993963835576295</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>41974</v>
       </c>
@@ -7640,7 +7635,7 @@
         <v>81.044400081294143</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>42005</v>
       </c>
@@ -7654,7 +7649,7 @@
         <v>81.343628192226404</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>42036</v>
       </c>
@@ -7668,7 +7663,7 @@
         <v>81.609126456179496</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>42064</v>
       </c>
@@ -7690,7 +7685,7 @@
         <v>81.578219097280908</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>42095</v>
       </c>
@@ -7704,7 +7699,7 @@
         <v>82.144207475078801</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>42125</v>
       </c>
@@ -7718,7 +7713,7 @@
         <v>82.695557169490698</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>42156</v>
       </c>
@@ -7740,7 +7735,7 @@
         <v>82.630063295061106</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>42186</v>
       </c>
@@ -7754,7 +7749,7 @@
         <v>83.323283656961294</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>42217</v>
       </c>
@@ -7768,7 +7763,7 @@
         <v>83.594897479585498</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>42248</v>
       </c>
@@ -7790,7 +7785,7 @@
         <v>83.542020096006397</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>42278</v>
       </c>
@@ -7804,7 +7799,7 @@
         <v>83.953215702790104</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>42309</v>
       </c>
@@ -7818,7 +7813,7 @@
         <v>84.370118835793505</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>42339</v>
       </c>
@@ -7840,7 +7835,7 @@
         <v>84.345238647785038</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>42370</v>
       </c>
@@ -7854,7 +7849,7 @@
         <v>85.078010658994799</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>42401</v>
       </c>
@@ -7868,7 +7863,7 @@
         <v>85.144626203531203</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>42430</v>
       </c>
@@ -7890,7 +7885,7 @@
         <v>85.171814731506032</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>42461</v>
       </c>
@@ -7904,7 +7899,7 @@
         <v>85.353343921971302</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>42491</v>
       </c>
@@ -7918,7 +7913,7 @@
         <v>85.6332815890635</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>42522</v>
       </c>
@@ -7940,7 +7935,7 @@
         <v>85.606668696416861</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>42552</v>
       </c>
@@ -7954,7 +7949,7 @@
         <v>85.792739144897595</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>42583</v>
       </c>
@@ -7968,7 +7963,7 @@
         <v>86.058523193498999</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>42614</v>
       </c>
@@ -7990,7 +7985,7 @@
         <v>86.059554065570737</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>42644</v>
       </c>
@@ -8004,7 +7999,7 @@
         <v>86.816391866376406</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>42675</v>
       </c>
@@ -8018,7 +8013,7 @@
         <v>87.196394025598593</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>42705</v>
       </c>
@@ -8040,7 +8035,7 @@
         <v>87.152576834209739</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>42736</v>
       </c>
@@ -8054,7 +8049,7 @@
         <v>87.711701444045303</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>42767</v>
       </c>
@@ -8068,7 +8063,7 @@
         <v>88.026606286076301</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>42795</v>
       </c>
@@ -8090,7 +8085,7 @@
         <v>88.138264050938403</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>42826</v>
       </c>
@@ -8104,7 +8099,7 @@
         <v>88.504728012859104</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>42856</v>
       </c>
@@ -8118,7 +8113,7 @@
         <v>88.243842675248104</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>42887</v>
       </c>
@@ -8140,7 +8135,7 @@
         <v>88.310577159810592</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>42917</v>
       </c>
@@ -8154,7 +8149,7 @@
         <v>88.237945026825003</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>42948</v>
       </c>
@@ -8168,7 +8163,7 @@
         <v>88.783097315025898</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>42979</v>
       </c>
@@ -8190,7 +8185,7 @@
         <v>88.62819474603856</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>43009</v>
       </c>
@@ -8204,7 +8199,7 @@
         <v>88.594593812508407</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>43040</v>
       </c>
@@ -8218,7 +8213,7 @@
         <v>88.5441136139804</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>43070</v>
       </c>
@@ -8240,7 +8235,7 @@
         <v>88.591159538580811</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>43101</v>
       </c>
@@ -8254,7 +8249,7 @@
         <v>88.817214268375295</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>43132</v>
       </c>
@@ -8268,7 +8263,7 @@
         <v>89.076513158508405</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>43160</v>
       </c>
@@ -8290,7 +8285,7 @@
         <v>88.962357721128726</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>43191</v>
       </c>
@@ -8304,7 +8299,7 @@
         <v>88.936790875493699</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>43221</v>
       </c>
@@ -8318,7 +8313,7 @@
         <v>89.067343707645094</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>43252</v>
       </c>
@@ -8340,7 +8335,7 @@
         <v>89.148694516656292</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>43282</v>
       </c>
@@ -8354,7 +8349,7 @@
         <v>89.658725541845499</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>43313</v>
       </c>
@@ -8368,7 +8363,7 @@
         <v>89.725944519760304</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>43344</v>
       </c>
@@ -8390,7 +8385,7 @@
         <v>89.793897732865332</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>43374</v>
       </c>
@@ -8404,7 +8399,7 @@
         <v>90.231033070158205</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>43405</v>
       </c>
@@ -8418,7 +8413,7 @@
         <v>90.459573766344405</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>43435</v>
       </c>
@@ -8440,7 +8435,7 @@
         <v>90.421055487756846</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>43466</v>
       </c>
@@ -8454,7 +8449,7 @@
         <v>90.708950151547498</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>43497</v>
       </c>
@@ -8468,7 +8463,7 @@
         <v>90.872092516426704</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>43525</v>
       </c>
@@ -8490,7 +8485,7 @@
         <v>90.858380370431405</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>43556</v>
       </c>
@@ -8504,7 +8499,7 @@
         <v>91.246325064915396</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>43586</v>
       </c>
@@ -8518,7 +8513,7 @@
         <v>91.494157928256399</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>43617</v>
       </c>
@@ -8540,7 +8535,7 @@
         <v>91.410679714350067</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>43647</v>
       </c>
@@ -8554,7 +8549,7 @@
         <v>91.547100249473601</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>43678</v>
       </c>
@@ -8568,7 +8563,7 @@
         <v>91.547426345299897</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>43709</v>
       </c>
@@ -8590,7 +8585,7 @@
         <v>91.586605089071284</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>43739</v>
       </c>
@@ -8604,7 +8599,7 @@
         <v>91.932096497583004</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>43770</v>
       </c>
@@ -8618,7 +8613,7 @@
         <v>92.145128996228806</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>43800</v>
       </c>
@@ -8640,7 +8635,7 @@
         <v>92.123169657882571</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>43831</v>
       </c>
@@ -8654,7 +8649,7 @@
         <v>92.423893712016493</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>43862</v>
       </c>
@@ -8668,7 +8663,7 @@
         <v>92.501375421509096</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>43891</v>
       </c>
@@ -8690,7 +8685,7 @@
         <v>92.527178600733123</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>43922</v>
       </c>
@@ -8704,7 +8699,7 @@
         <v>92.820245058313205</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>43952</v>
       </c>
@@ -8718,7 +8713,7 @@
         <v>93.121563469126698</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>43983</v>
       </c>
@@ -8740,7 +8735,7 @@
         <v>92.966984264554071</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>44013</v>
       </c>
@@ -8754,7 +8749,7 @@
         <v>93.243221890647405</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>44044</v>
       </c>
@@ -8768,7 +8763,7 @@
         <v>93.078152808986005</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>44075</v>
       </c>
@@ -8790,7 +8785,7 @@
         <v>93.2176486354373</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>44105</v>
       </c>
@@ -8804,7 +8799,7 @@
         <v>93.516799513355807</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>44136</v>
       </c>
@@ -8818,7 +8813,7 @@
         <v>94.119938126481998</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>44166</v>
       </c>
@@ -8840,7 +8835,7 @@
         <v>93.916393135785498</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>44197</v>
       </c>
@@ -8854,7 +8849,7 @@
         <v>94.895029904878299</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>44228</v>
       </c>
@@ -8868,7 +8863,7 @@
         <v>94.849678460488704</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>44256</v>
       </c>
@@ -8890,7 +8885,7 @@
         <v>94.938687783804895</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>44287</v>
       </c>
@@ -8904,7 +8899,7 @@
         <v>95.035070007880705</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>44317</v>
       </c>
@@ -8918,7 +8913,7 @@
         <v>95.406779987290506</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>44348</v>
       </c>
@@ -8940,7 +8935,7 @@
         <v>95.474982345923038</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>44378</v>
       </c>
@@ -8954,7 +8949,7 @@
         <v>96.793209327286704</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>44409</v>
       </c>
@@ -8968,7 +8963,7 @@
         <v>97.683132647640804</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>44440</v>
       </c>
@@ -8990,7 +8985,7 @@
         <v>97.561429046314558</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>44470</v>
       </c>
@@ -9004,7 +8999,7 @@
         <v>98.9600866328324</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>44501</v>
       </c>
@@ -9018,7 +9013,7 @@
         <v>99.442381529081402</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>44531</v>
       </c>
@@ -9040,7 +9035,7 @@
         <v>99.519428582755268</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>44562</v>
       </c>
@@ -9054,7 +9049,7 @@
         <v>100.292450448829</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>44593</v>
       </c>
@@ -9068,7 +9063,7 @@
         <v>100.679422249168</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>44621</v>
       </c>
@@ -9090,7 +9085,7 @@
         <v>100.84836865499733</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>44652</v>
       </c>
@@ -9104,7 +9099,7 @@
         <v>102.607606429442</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>44682</v>
       </c>
@@ -9118,7 +9113,7 @@
         <v>103.12986154578201</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>44713</v>
       </c>
@@ -9140,7 +9135,7 @@
         <v>103.39055138744034</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>44743</v>
       </c>
@@ -9154,7 +9149,7 @@
         <v>105.25584583777101</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>44774</v>
       </c>
@@ -9168,7 +9163,7 @@
         <v>105.894571213467</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>44805</v>
       </c>
@@ -9190,7 +9185,7 @@
         <v>105.91322240477967</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>44835</v>
       </c>
@@ -9204,7 +9199,7 @@
         <v>107.150845557206</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>44866</v>
       </c>
@@ -9218,7 +9213,7 @@
         <v>107.839428742846</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>44896</v>
       </c>
@@ -9240,7 +9235,7 @@
         <v>107.86974235738835</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>44927</v>
       </c>
@@ -9254,7 +9249,7 @@
         <v>108.976331045398</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>44958</v>
       </c>
@@ -9268,7 +9263,7 @@
         <v>109.362954405051</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>44986</v>
       </c>
@@ -9290,7 +9285,7 @@
         <v>109.48550138443733</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>45017</v>
       </c>
@@ -9304,7 +9299,7 @@
         <v>110.78065407998599</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>45047</v>
       </c>
@@ -9318,7 +9313,7 @@
         <v>111.26871000774</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>45078</v>
       </c>
@@ -9340,7 +9335,7 @@
         <v>111.07513762749132</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>45108</v>
       </c>
@@ -9354,7 +9349,7 @@
         <v>111.45144004420401</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>45139</v>
       </c>
@@ -9368,7 +9363,7 @@
         <v>111.803688684699</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>45170</v>
       </c>
@@ -9390,7 +9385,7 @@
         <v>111.74108304672568</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>45200</v>
       </c>
@@ -9404,7 +9399,7 @@
         <v>111.812342586716</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>45231</v>
       </c>
@@ -9418,7 +9413,7 @@
         <v>111.767229423291</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>45261</v>
       </c>
@@ -9440,7 +9435,7 @@
         <v>111.90579262196032</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>45292</v>
       </c>
@@ -9454,7 +9449,7 @@
         <v>112.277183827836</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>45323</v>
       </c>
@@ -9468,7 +9463,7 @@
         <v>112.846668727121</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>45352</v>
       </c>
@@ -9490,7 +9485,7 @@
         <v>112.863143630636</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>45383</v>
       </c>
@@ -9504,7 +9499,7 @@
         <v>113.46821529455001</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>45413</v>
       </c>
@@ -9518,7 +9513,7 @@
         <v>113.49704662346301</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>45444</v>
       </c>
@@ -9540,7 +9535,7 @@
         <v>113.557936885076</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>45474</v>
       </c>
@@ -9554,7 +9549,7 @@
         <v>113.828167071937</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>45505</v>
       </c>
@@ -9568,7 +9563,7 @@
         <v>114.074713724709</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>45536</v>
       </c>
@@ -9590,7 +9585,7 @@
         <v>113.953396018845</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>45566</v>
       </c>
@@ -9602,6 +9597,1499 @@
       </c>
       <c r="D371">
         <v>114.06190369135</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F371" xr:uid="{30F3F68C-45FF-D241-A42C-8C4FDCED4288}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B3A93-6A2B-4B8B-A4C0-5D344E22508B}">
+  <dimension ref="A1:C124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>34394</v>
+      </c>
+      <c r="B2">
+        <v>34.085276878074332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>34486</v>
+      </c>
+      <c r="B3">
+        <v>35.657273094388763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>34578</v>
+      </c>
+      <c r="B4">
+        <v>36.767492296134499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>34669</v>
+      </c>
+      <c r="B5">
+        <v>37.562478200125234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>34759</v>
+      </c>
+      <c r="B6">
+        <v>38.465729635746364</v>
+      </c>
+      <c r="C6">
+        <f>(B6-B2)/B2*100</f>
+        <v>12.851451297700322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>34851</v>
+      </c>
+      <c r="B7">
+        <v>39.670705537818371</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C70" si="0">(B7-B3)/B3*100</f>
+        <v>11.255578722482804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>34943</v>
+      </c>
+      <c r="B8">
+        <v>40.553409505449828</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>10.296914401511566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>35034</v>
+      </c>
+      <c r="B9">
+        <v>41.418673226080763</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>10.266082566252702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>35125</v>
+      </c>
+      <c r="B10">
+        <v>42.881630403685001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>11.480091005046015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>35217</v>
+      </c>
+      <c r="B11">
+        <v>44.152644183380339</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>11.297854638076208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>35309</v>
+      </c>
+      <c r="B12">
+        <v>45.332581554812698</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>11.784883460219577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>35400</v>
+      </c>
+      <c r="B13">
+        <v>46.23267693342013</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>11.622785889500815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>35490</v>
+      </c>
+      <c r="B14">
+        <v>47.126657856601533</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>9.8994077719389555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>35582</v>
+      </c>
+      <c r="B15">
+        <v>48.137687157959363</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>9.0256043511863968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>35674</v>
+      </c>
+      <c r="B16">
+        <v>49.130767715891068</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>8.3784907693507211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>35765</v>
+      </c>
+      <c r="B17">
+        <v>49.468776654184296</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>6.9995940867202791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>35855</v>
+      </c>
+      <c r="B18">
+        <v>50.777768890855775</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>7.7474431676524933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>35947</v>
+      </c>
+      <c r="B19">
+        <v>52.041466987792937</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>8.1096123646815066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>36039</v>
+      </c>
+      <c r="B20">
+        <v>52.654684745744397</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>7.1725258807904577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>36130</v>
+      </c>
+      <c r="B21">
+        <v>52.454715575394324</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>6.0360072012362247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>36220</v>
+      </c>
+      <c r="B22">
+        <v>52.902262096458166</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4.1839042006136209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>36312</v>
+      </c>
+      <c r="B23">
+        <v>53.686968364470069</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>3.1619042888685422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>36404</v>
+      </c>
+      <c r="B24">
+        <v>54.121505524091532</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2.7857365122021442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>36495</v>
+      </c>
+      <c r="B25">
+        <v>54.431612890878306</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3.7687694877356508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>36586</v>
+      </c>
+      <c r="B26">
+        <v>54.951367293076167</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>3.8733791626562404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>36678</v>
+      </c>
+      <c r="B27">
+        <v>55.537812262892864</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3.4474732971655002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>36770</v>
+      </c>
+      <c r="B28">
+        <v>56.129892817355135</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3.7108858554749427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>36861</v>
+      </c>
+      <c r="B29">
+        <v>56.609492203457137</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>4.001129485075027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>36951</v>
+      </c>
+      <c r="B30">
+        <v>56.975368690054971</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3.6832593922259447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>37043</v>
+      </c>
+      <c r="B31">
+        <v>56.974673644644838</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2.5871767777788426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>37135</v>
+      </c>
+      <c r="B32">
+        <v>56.952511347542135</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>1.4655622679768419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>37226</v>
+      </c>
+      <c r="B33">
+        <v>56.735647690123962</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.22285217859474202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>37316</v>
+      </c>
+      <c r="B34">
+        <v>56.399489428853464</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-1.0107512675069825</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>37408</v>
+      </c>
+      <c r="B35">
+        <v>57.016421964970867</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>7.327522503492731E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>37500</v>
+      </c>
+      <c r="B36">
+        <v>57.104196502497736</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.26633620075148284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>37591</v>
+      </c>
+      <c r="B37">
+        <v>57.554929863472239</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1.4440342301598343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>37681</v>
+      </c>
+      <c r="B38">
+        <v>57.994250870440261</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>2.8276168059970628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>37773</v>
+      </c>
+      <c r="B39">
+        <v>58.38103843353236</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>2.3933744376310946</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>37865</v>
+      </c>
+      <c r="B40">
+        <v>58.216963972630168</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1.9486614614807864</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>37956</v>
+      </c>
+      <c r="B41">
+        <v>58.640074196872895</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1.8854064038906124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>38047</v>
+      </c>
+      <c r="B42">
+        <v>59.730021125098631</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>2.9930040109253206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>38139</v>
+      </c>
+      <c r="B43">
+        <v>60.369595523450236</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>3.40616944006893</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>38231</v>
+      </c>
+      <c r="B44">
+        <v>60.783920586643497</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>4.4092931661983341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>38322</v>
+      </c>
+      <c r="B45">
+        <v>60.888698624354674</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>3.8346207065367115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>38412</v>
+      </c>
+      <c r="B46">
+        <v>61.04056037592963</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>2.1941047837338008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>38504</v>
+      </c>
+      <c r="B47">
+        <v>61.435086018674163</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1.7649455590770728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>38596</v>
+      </c>
+      <c r="B48">
+        <v>61.54015846123437</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>1.2441413243703252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>38687</v>
+      </c>
+      <c r="B49">
+        <v>61.667576972477633</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>1.2791837659861194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>38777</v>
+      </c>
+      <c r="B50">
+        <v>62.485177659011207</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>2.3666514104468126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>38869</v>
+      </c>
+      <c r="B51">
+        <v>62.859651600422133</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>2.3188143356956492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>38961</v>
+      </c>
+      <c r="B52">
+        <v>62.650125382095332</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1.80364651085544</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>39052</v>
+      </c>
+      <c r="B53">
+        <v>62.605489024264365</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1.5209160110268711</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>39142</v>
+      </c>
+      <c r="B54">
+        <v>62.744318269361663</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.41472333129084926</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>39234</v>
+      </c>
+      <c r="B55">
+        <v>63.362452727162264</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0.79987895882126481</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>39326</v>
+      </c>
+      <c r="B56">
+        <v>64.156171440470203</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>2.4038995120754874</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>39417</v>
+      </c>
+      <c r="B57">
+        <v>64.794887620912831</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>3.4971352045503687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>39508</v>
+      </c>
+      <c r="B58">
+        <v>65.781012632835697</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>4.8397917886962931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>39600</v>
+      </c>
+      <c r="B59">
+        <v>66.872364696154591</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>5.5394193531395537</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>39692</v>
+      </c>
+      <c r="B60">
+        <v>68.065861586518395</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>6.0940203541851767</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>39783</v>
+      </c>
+      <c r="B61">
+        <v>69.101034400000728</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>6.6458125589804542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>39873</v>
+      </c>
+      <c r="B62">
+        <v>69.459918771433934</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>5.5926565909413331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>39965</v>
+      </c>
+      <c r="B63">
+        <v>69.523678251782158</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>3.9647372538330878</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>40057</v>
+      </c>
+      <c r="B64">
+        <v>69.369401547223831</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1.9151156399430991</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>40148</v>
+      </c>
+      <c r="B65">
+        <v>69.387429909571367</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0.41445907728790193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>40238</v>
+      </c>
+      <c r="B66">
+        <v>69.929035076696806</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0.67537698511648858</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>40330</v>
+      </c>
+      <c r="B67">
+        <v>70.322736061833496</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>1.1493318969078776</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>40422</v>
+      </c>
+      <c r="B68">
+        <v>70.871613861951403</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>2.1655258388021812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>40513</v>
+      </c>
+      <c r="B69">
+        <v>70.865159174506502</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>2.1296786274703856</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>40603</v>
+      </c>
+      <c r="B70">
+        <v>71.577280991660004</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="0"/>
+        <v>2.3570265386265286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>40695</v>
+      </c>
+      <c r="B71">
+        <v>72.505672796076098</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:C124" si="1">(B71-B67)/B67*100</f>
+        <v>3.1041692295976455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>40787</v>
+      </c>
+      <c r="B72">
+        <v>73.334372452838238</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>3.4749576828939803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>40878</v>
+      </c>
+      <c r="B73">
+        <v>74.073288583009358</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>4.5270898222394305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>40969</v>
+      </c>
+      <c r="B74">
+        <v>74.588944230905668</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>4.2075686551946205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>41061</v>
+      </c>
+      <c r="B75">
+        <v>75.459129280392801</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>4.073414355623413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>41153</v>
+      </c>
+      <c r="B76">
+        <v>75.911982958051297</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>3.5148736111033543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>41244</v>
+      </c>
+      <c r="B77">
+        <v>76.18574683315569</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>2.8518488790720165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>41334</v>
+      </c>
+      <c r="B78">
+        <v>76.555464004782053</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>2.6364762152801253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B79">
+        <v>77.356283848500269</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>2.5141485015788825</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>41518</v>
+      </c>
+      <c r="B80">
+        <v>78.27698270608289</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>3.1154498352894877</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>41609</v>
+      </c>
+      <c r="B81">
+        <v>78.434035426175271</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>2.9510619590607408</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>41699</v>
+      </c>
+      <c r="B82">
+        <v>79.164289989785445</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>3.4077593531931716</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>41791</v>
+      </c>
+      <c r="B83">
+        <v>80.071043037797367</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>3.5094229637683529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>41883</v>
+      </c>
+      <c r="B84">
+        <v>80.560636913043297</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>2.917401933509816</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>41974</v>
+      </c>
+      <c r="B85">
+        <v>80.910240819671628</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>3.1570546893855087</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>42064</v>
+      </c>
+      <c r="B86">
+        <v>81.502718311489332</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>2.9538928751910918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>42156</v>
+      </c>
+      <c r="B87">
+        <v>82.721275951726696</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>3.3098518682693978</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B88">
+        <v>83.651487418818263</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>3.8366758558664489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B89">
+        <v>84.208900413604326</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>4.0769370607665989</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>42430</v>
+      </c>
+      <c r="B90">
+        <v>85.138244173322434</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>4.4606191513008797</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>42522</v>
+      </c>
+      <c r="B91">
+        <v>85.69561782154851</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>3.5956189451883427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>42614</v>
+      </c>
+      <c r="B92">
+        <v>86.169780670308512</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>3.0104584260192522</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B93">
+        <v>87.012809881326618</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>3.3297067815284138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>42795</v>
+      </c>
+      <c r="B94">
+        <v>88.068362361292728</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>3.4416004422233892</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>42887</v>
+      </c>
+      <c r="B95">
+        <v>88.399384276329059</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>3.1550813489796394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>42979</v>
+      </c>
+      <c r="B96">
+        <v>88.746623223250253</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>2.9904248715694397</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>43070</v>
+      </c>
+      <c r="B97">
+        <v>88.447725459960736</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>1.649085439938262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>43160</v>
+      </c>
+      <c r="B98">
+        <v>88.886651844076866</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>0.92915260468586569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>43252</v>
+      </c>
+      <c r="B99">
+        <v>89.236869094140673</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>0.94738761436811214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>43344</v>
+      </c>
+      <c r="B100">
+        <v>89.919557138450713</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>1.3216659660952252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>43435</v>
+      </c>
+      <c r="B101">
+        <v>90.275723356938059</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>2.06675512283788</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>43525</v>
+      </c>
+      <c r="B102">
+        <v>90.777142030719617</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>2.1268549860096089</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>43617</v>
+      </c>
+      <c r="B103">
+        <v>91.501026386263774</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>2.5372442075870265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>43709</v>
+      </c>
+      <c r="B104">
+        <v>91.718610780081164</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>2.0007367683766688</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>43800</v>
+      </c>
+      <c r="B105">
+        <v>91.975159377928208</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>1.8824950471687802</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>43891</v>
+      </c>
+      <c r="B106">
+        <v>92.475746913492102</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>1.8711812740234386</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B107">
+        <v>93.058129003811928</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>1.7017324056836016</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B108">
+        <v>93.35994767055648</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>1.789535271539209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>44166</v>
+      </c>
+      <c r="B109">
+        <v>93.76552992811493</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>1.9465805357618846</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B110">
+        <v>94.841635199428893</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>2.5583878637390174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>44348</v>
+      </c>
+      <c r="B111">
+        <v>95.566017173232012</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>2.6949694736688228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>44440</v>
+      </c>
+      <c r="B112">
+        <v>97.715751891433698</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>4.6656026803354091</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>44531</v>
+      </c>
+      <c r="B113">
+        <v>99.364119317832248</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>5.9708395974613069</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B114">
+        <v>100.74092666666665</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>6.2201494679346094</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B115">
+        <v>103.48907833333334</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>8.2906679533784864</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>44805</v>
+      </c>
+      <c r="B116">
+        <v>106.07590966666667</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>8.5555886470806293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>44896</v>
+      </c>
+      <c r="B117">
+        <v>107.70491566666668</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>8.3941732751185985</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B118">
+        <v>109.37374166666666</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>8.5693226036766745</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B119">
+        <v>111.18411400000001</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>7.4356016988394948</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B120">
+        <v>111.90916066666666</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>5.4991288958354625</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B121">
+        <v>111.72943633333334</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>3.7366174438333446</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>45352</v>
+      </c>
+      <c r="B122">
+        <v>112.78706633333333</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>3.1207898848969631</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B123">
+        <v>113.671576</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>2.2372458712941614</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>45536</v>
+      </c>
+      <c r="B124">
+        <v>114.123537</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>1.9787266030250099</v>
       </c>
     </row>
   </sheetData>
@@ -9609,7 +11097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD60C41-834C-3743-A4D0-F2B066E366B0}">
   <dimension ref="A1:C124"/>
   <sheetViews>
@@ -9617,9 +11105,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9627,7 +11115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>34394</v>
       </c>
@@ -9635,7 +11123,7 @@
         <v>34.159189150948166</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>34486</v>
       </c>
@@ -9647,7 +11135,7 @@
         <v>15.623062486846834</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>34578</v>
       </c>
@@ -9659,7 +11147,7 @@
         <v>12.831684546450322</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>34669</v>
       </c>
@@ -9671,7 +11159,7 @@
         <v>11.243727723584545</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>34759</v>
       </c>
@@ -9683,7 +11171,7 @@
         <v>8.5681142198146034</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>34851</v>
       </c>
@@ -9695,7 +11183,7 @@
         <v>10.198955215956341</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>34943</v>
       </c>
@@ -9707,7 +11195,7 @@
         <v>9.2835172807893507</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>35034</v>
       </c>
@@ -9719,7 +11207,7 @@
         <v>10.874397234522055</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>35125</v>
       </c>
@@ -9731,7 +11219,7 @@
         <v>12.670272679018685</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>35217</v>
       </c>
@@ -9743,7 +11231,7 @@
         <v>10.144146600988183</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>35309</v>
       </c>
@@ -9755,7 +11243,7 @@
         <v>10.97029914666328</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>35400</v>
       </c>
@@ -9767,7 +11255,7 @@
         <v>10.031253606042551</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>35490</v>
       </c>
@@ -9779,7 +11267,7 @@
         <v>6.892442282548604</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>35582</v>
       </c>
@@ -9791,7 +11279,7 @@
         <v>6.7811758851497803</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>35674</v>
       </c>
@@ -9803,7 +11291,7 @@
         <v>8.542357234939308</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>35765</v>
       </c>
@@ -9815,7 +11303,7 @@
         <v>4.7555055914418594</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>35855</v>
       </c>
@@ -9827,7 +11315,7 @@
         <v>9.7254730128816274</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>35947</v>
       </c>
@@ -9839,7 +11327,7 @@
         <v>8.2509142821403216</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>36039</v>
       </c>
@@ -9851,7 +11339,7 @@
         <v>5.0390097283341335</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>36130</v>
       </c>
@@ -9863,7 +11351,7 @@
         <v>0.3103147606107528</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>36220</v>
       </c>
@@ -9875,7 +11363,7 @@
         <v>2.7676917193663622</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>36312</v>
       </c>
@@ -9887,7 +11375,7 @@
         <v>4.4022005696661486</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>36404</v>
       </c>
@@ -9899,7 +11387,7 @@
         <v>3.5827904769875194</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>36495</v>
       </c>
@@ -9911,7 +11399,7 @@
         <v>3.9314204770118959</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>36586</v>
       </c>
@@ -9923,7 +11411,7 @@
         <v>2.9644337862315893</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>36678</v>
       </c>
@@ -9935,7 +11423,7 @@
         <v>3.1470242609839931</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>36770</v>
       </c>
@@ -9947,7 +11435,7 @@
         <v>4.6119967321529698</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>36861</v>
       </c>
@@ -9959,7 +11447,7 @@
         <v>4.8673986514996583</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>36951</v>
       </c>
@@ -9971,7 +11459,7 @@
         <v>2.0631383790372317</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>37043</v>
       </c>
@@ -9983,7 +11471,7 @@
         <v>-1.2932458684735284</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>37135</v>
       </c>
@@ -9995,7 +11483,7 @@
         <v>0.24509429408283026</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>37226</v>
       </c>
@@ -10007,7 +11495,7 @@
         <v>-0.14914014616122029</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>37316</v>
       </c>
@@ -10019,7 +11507,7 @@
         <v>-2.888369209185198</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>37408</v>
       </c>
@@ -10031,7 +11519,7 @@
         <v>3.0843986785051047</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>37500</v>
       </c>
@@ -10043,7 +11531,7 @@
         <v>1.0770445268220843</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>37591</v>
       </c>
@@ -10055,7 +11543,7 @@
         <v>4.4394385308779842</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37681</v>
       </c>
@@ -10067,7 +11555,7 @@
         <v>2.4927740689794762</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>37773</v>
       </c>
@@ -10079,7 +11567,7 @@
         <v>1.4679437551875194</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>37865</v>
       </c>
@@ -10091,7 +11579,7 @@
         <v>-0.64171721869363763</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>37956</v>
       </c>
@@ -10103,7 +11591,7 @@
         <v>4.1497338885362423</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>38047</v>
       </c>
@@ -10115,7 +11603,7 @@
         <v>6.5424365125049624</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>38139</v>
       </c>
@@ -10127,7 +11615,7 @@
         <v>3.3886815425046781</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>38231</v>
       </c>
@@ -10139,7 +11627,7 @@
         <v>3.1776597550062275</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>38322</v>
       </c>
@@ -10151,7 +11639,7 @@
         <v>1.8992848949307057</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>38412</v>
       </c>
@@ -10163,7 +11651,7 @@
         <v>0.45760273739043189</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>38504</v>
       </c>
@@ -10175,7 +11663,7 @@
         <v>1.5059924942183833</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>38596</v>
       </c>
@@ -10187,7 +11675,7 @@
         <v>1.0757677055658539</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>38687</v>
       </c>
@@ -10199,7 +11687,7 @@
         <v>2.0198174797255457</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>38777</v>
       </c>
@@ -10211,7 +11699,7 @@
         <v>4.7537309827231189</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>38869</v>
       </c>
@@ -10223,7 +11711,7 @@
         <v>1.3638779026822305</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>38961</v>
       </c>
@@ -10235,7 +11723,7 @@
         <v>-1.0172393649153382</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>39052</v>
       </c>
@@ -10247,7 +11735,7 @@
         <v>0.89669668306632233</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>39142</v>
       </c>
@@ -10259,7 +11747,7 @@
         <v>0.4384152566385669</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>39234</v>
       </c>
@@ -10271,7 +11759,7 @@
         <v>2.926661750950732</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>39326</v>
       </c>
@@ -10283,7 +11771,7 @@
         <v>5.2133470536594544</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>39417</v>
       </c>
@@ -10295,7 +11783,7 @@
         <v>5.1175579394102817</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>39508</v>
       </c>
@@ -10307,7 +11795,7 @@
         <v>5.4147403405043679</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>39600</v>
       </c>
@@ -10319,7 +11807,7 @@
         <v>5.8952130550630653</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>39692</v>
       </c>
@@ -10331,7 +11819,7 @@
         <v>7.2398110537295519</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>39783</v>
       </c>
@@ -10343,7 +11831,7 @@
         <v>7.1256576367119919</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>39873</v>
       </c>
@@ -10355,7 +11843,7 @@
         <v>1.7148507990984723</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>39965</v>
       </c>
@@ -10367,7 +11855,7 @@
         <v>-0.49438515440050301</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>40057</v>
       </c>
@@ -10379,7 +11867,7 @@
         <v>-0.78000963551295288</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>40148</v>
       </c>
@@ -10391,7 +11879,7 @@
         <v>1.2368101179125315</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>40238</v>
       </c>
@@ -10403,7 +11891,7 @@
         <v>2.754287671541221</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>40330</v>
       </c>
@@ -10415,7 +11903,7 @@
         <v>1.3655306540468601</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>40422</v>
       </c>
@@ -10427,7 +11915,7 @@
         <v>3.1648898518946824</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>40513</v>
       </c>
@@ -10439,7 +11927,7 @@
         <v>1.1423598619201718</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>40603</v>
       </c>
@@ -10451,7 +11939,7 @@
         <v>3.6785759329264223</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>40695</v>
       </c>
@@ -10463,7 +11951,7 @@
         <v>4.2611528182332163</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>40787</v>
       </c>
@@ -10475,7 +11963,7 @@
         <v>4.5566123140007884</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>40878</v>
       </c>
@@ -10487,7 +11975,7 @@
         <v>5.1793358924186164</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>40969</v>
       </c>
@@ -10499,7 +11987,7 @@
         <v>2.3053699466146136</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>41061</v>
       </c>
@@ -10511,7 +11999,7 @@
         <v>3.9490954126259412</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>41153</v>
       </c>
@@ -10523,7 +12011,7 @@
         <v>2.3602844378190291</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>41244</v>
       </c>
@@ -10535,7 +12023,7 @@
         <v>2.6349888842566602</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>41334</v>
       </c>
@@ -10547,7 +12035,7 @@
         <v>1.6707867575845965</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>41426</v>
       </c>
@@ -10559,7 +12047,7 @@
         <v>3.2820495789716535</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>41518</v>
       </c>
@@ -10571,7 +12059,7 @@
         <v>4.6729134457620347</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>41609</v>
       </c>
@@ -10583,7 +12071,7 @@
         <v>2.0091468449198886</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>41699</v>
       </c>
@@ -10595,7 +12083,7 @@
         <v>3.4266145960953938</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>41791</v>
       </c>
@@ -10607,7 +12095,7 @@
         <v>3.7024758700314901</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>41883</v>
       </c>
@@ -10619,7 +12107,7 @@
         <v>2.3664085564659807</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>41974</v>
       </c>
@@ -10631,7 +12119,7 @@
         <v>2.931675982821786</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>42064</v>
       </c>
@@ -10643,7 +12131,7 @@
         <v>2.6260599468133172</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>42156</v>
       </c>
@@ -10655,7 +12143,7 @@
         <v>5.1245092824955396</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>42248</v>
       </c>
@@ -10667,7 +12155,7 @@
         <v>4.3904652963162452</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>42339</v>
       </c>
@@ -10679,7 +12167,7 @@
         <v>3.8274479492279148</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>42430</v>
       </c>
@@ -10691,7 +12179,7 @@
         <v>3.9008825046401263</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>42522</v>
       </c>
@@ -10703,7 +12191,7 @@
         <v>2.0370477404493914</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>42614</v>
       </c>
@@ -10715,7 +12203,7 @@
         <v>2.1105441131515841</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>42705</v>
       </c>
@@ -10727,7 +12215,7 @@
         <v>5.0483174423485364</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>42795</v>
       </c>
@@ -10739,7 +12227,7 @@
         <v>4.4985698102296547</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>42887</v>
       </c>
@@ -10751,7 +12239,7 @@
         <v>0.78124928434364393</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>42979</v>
       </c>
@@ -10763,7 +12251,7 @@
         <v>1.4360580169433939</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>43070</v>
       </c>
@@ -10775,7 +12263,7 @@
         <v>-0.16718358170930722</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>43160</v>
       </c>
@@ -10787,7 +12275,7 @@
         <v>1.6725040611058044</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>43252</v>
       </c>
@@ -10799,7 +12287,7 @@
         <v>0.83694688754375557</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>43344</v>
       </c>
@@ -10811,7 +12299,7 @@
         <v>2.8845273968311886</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>43435</v>
       </c>
@@ -10823,7 +12311,7 @@
         <v>2.7840543772459263</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>43525</v>
       </c>
@@ -10835,7 +12323,7 @@
         <v>1.9299518624145486</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>43617</v>
       </c>
@@ -10847,7 +12335,7 @@
         <v>2.4241131611485525</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>43709</v>
       </c>
@@ -10859,7 +12347,7 @@
         <v>0.76908432431528206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>43800</v>
       </c>
@@ -10871,7 +12359,7 @@
         <v>2.3365815794917686</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>43891</v>
       </c>
@@ -10883,7 +12371,7 @@
         <v>1.7503767151406935</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>43983</v>
       </c>
@@ -10895,7 +12383,7 @@
         <v>1.8967992573764354</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>44075</v>
       </c>
@@ -10907,7 +12395,7 @@
         <v>1.0770578363162773</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44166</v>
       </c>
@@ -10919,7 +12407,7 @@
         <v>2.9871539827010984</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>44256</v>
       </c>
@@ -10931,7 +12419,7 @@
         <v>4.3305358934633924</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>44348</v>
       </c>
@@ -10943,7 +12431,7 @@
         <v>2.2531826830004977</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>44440</v>
       </c>
@@ -10955,7 +12443,7 @@
         <v>8.6471891631722002</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44531</v>
       </c>
@@ -10967,7 +12455,7 @@
         <v>7.9482664519909987</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>44621</v>
       </c>
@@ -10979,7 +12467,7 @@
         <v>5.3060804293413799</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>44713</v>
       </c>
@@ -10991,7 +12479,7 @@
         <v>9.9581961409198687</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>44805</v>
       </c>
@@ -11003,7 +12491,7 @@
         <v>9.6426094415321071</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>44896</v>
       </c>
@@ -11015,7 +12503,7 @@
         <v>7.3217230634606141</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>44986</v>
       </c>
@@ -11027,7 +12515,7 @@
         <v>5.9470892448393906</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>45078</v>
       </c>
@@ -11039,7 +12527,7 @@
         <v>5.7659019317852094</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>45170</v>
       </c>
@@ -11051,7 +12539,7 @@
         <v>2.3910194693401547</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>45261</v>
       </c>
@@ -11063,7 +12551,7 @@
         <v>0.58917739680876124</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>45352</v>
       </c>
@@ -11075,7 +12563,7 @@
         <v>3.4074345464853106</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>45444</v>
       </c>
@@ -11087,7 +12575,7 @@
         <v>2.4548789667448663</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>45536</v>
       </c>
